--- a/src/test/resources/all type.xlsx
+++ b/src/test/resources/all type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wangguanquan3\eec\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangguanquan3/eec/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CA0E80-EEDD-2043-9894-6F195F47D415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27000" windowHeight="12690"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27000" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -114,11 +115,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -476,33 +477,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
     <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" customWidth="1"/>
     <col min="13" max="13" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -549,7 +550,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="b">
         <v>0</v>
       </c>
@@ -590,7 +591,7 @@
         <v>0.72423611111111119</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="b">
         <v>0</v>
       </c>
@@ -628,7 +629,7 @@
         <v>43896.724236111113</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -667,7 +668,7 @@
         <v>0.72423611111111119</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="b">
         <v>1</v>
       </c>
@@ -699,7 +700,7 @@
         <v>0.72423611111111119</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="b">
         <v>0</v>
       </c>
@@ -732,7 +733,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="b">
         <v>0</v>
       </c>
@@ -768,7 +769,7 @@
         <v>0.72423611111111119</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -803,7 +804,7 @@
         <v>0.72423611111111119</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="b">
         <v>0</v>
       </c>
@@ -829,8 +830,11 @@
         <v>43896</v>
       </c>
       <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="b">
         <v>1</v>
       </c>
@@ -871,7 +875,7 @@
         <v>0.72423611111111119</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="B11" t="s">
         <v>1</v>
       </c>
@@ -907,6 +911,11 @@
       </c>
       <c r="O11" s="3">
         <v>0.72423611111111119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="O12" s="3">
+        <v>0.72361111111111109</v>
       </c>
     </row>
   </sheetData>
